--- a/password_history.xlsx
+++ b/password_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,63 +450,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>123cccAAA#</t>
+          <t>Imran^jkl1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>123cccAAA#</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>123cccAAA#</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>123cccAAA#</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>123cccAAA#</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>123cccAAA#rrty</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>lllkkk525&amp;</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>lllkkk525&amp;</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>lllkkk525&amp;</t>
+          <t>abcd2Abc#</t>
         </is>
       </c>
     </row>
